--- a/biology/Biologie cellulaire et moléculaire/Myotube/Myotube.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Myotube/Myotube.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un myotube (du grec myo muscle) est un syncytium pluri-nucléé formé par la fusion de plusieurs myoblastes lors de la myogenèse. Les myotubes se différencient ensuite en fibres musculaires sous l'infuence de MRF4, facteur de transcription spécifique du muscle. Au cours de cette différenciation, les myofibrilles s'organisent et s'agencent en sarcomère, le cytosquelette se réarrange, et les noyaux (provenant des myoblastes) se relocalisent à la périphérie, donnant une nouvelle architecture au syncitium. 
  Portail de la biologie   Portail de la biologie cellulaire et moléculaire   Portail de la médecine                   </t>
